--- a/main/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:41:56+00:00</t>
+    <t>2025-10-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de la ressource FRCorePractitionerProfile permettant de représenter un Profesionnel.</t>
+    <t>Profil de la ressource FRCorePractitionerProfile permettant de représenter un professionnel du médicosocial dans le cadre de TDDUI. Le profil AsPractitionerRoleProfile n'a pas été utilisé car il comportait trop de contraintes non présentes dans les DUI.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/main/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:49:22+00:00</t>
+    <t>2025-10-20T13:54:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:54:58+00:00</t>
+    <t>2025-10-23T09:18:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:18:35+00:00</t>
+    <t>2025-10-23T14:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:35:50+00:00</t>
+    <t>2025-10-29T16:42:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T16:42:45+00:00</t>
+    <t>2025-11-04T09:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T09:41:06+00:00</t>
+    <t>2025-11-04T14:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2113,17 +2113,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.98046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.8984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.70703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.15625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2132,27 +2132,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.42578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="107.80859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="48.16015625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="43.68359375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="56.17578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="50.953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:52:21+00:00</t>
+    <t>2025-12-08T13:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2113,17 +2113,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="65.296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.70703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.15625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.98046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.8984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2132,27 +2132,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="107.80859375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="92.42578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="56.17578125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="50.953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="48.16015625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="43.68359375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T13:48:42+00:00</t>
+    <t>2025-12-08T14:21:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2113,17 +2113,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.98046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.8984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.70703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.15625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2132,27 +2132,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.42578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="107.80859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="48.16015625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="43.68359375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="56.17578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="50.953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T14:21:35+00:00</t>
+    <t>2025-12-17T08:43:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2113,17 +2113,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="65.296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.70703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.15625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.98046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.8984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2132,27 +2132,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="107.80859375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="92.42578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="56.17578125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="50.953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="48.16015625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="43.68359375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T08:43:13+00:00</t>
+    <t>2025-12-17T14:24:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T14:24:53+00:00</t>
+    <t>2025-12-18T17:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:03:49+00:00</t>
+    <t>2025-12-18T17:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:22:25+00:00</t>
+    <t>2025-12-18T17:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:25:31+00:00</t>
+    <t>2025-12-19T08:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -442,7 +442,7 @@
     <t>Practitioner.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -493,7 +493,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -517,7 +517,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -560,7 +560,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -636,7 +636,7 @@
     <t>specialty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-specialty}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-specialty|2.1.0}
 </t>
   </si>
   <si>
@@ -793,7 +793,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -903,7 +903,7 @@
     <t>Practitioner.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1053,7 +1053,7 @@
     <t>Practitioner.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name}
+    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1090,7 +1090,7 @@
     <t>assemblyOrder</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {humanname-assembly-order}
+    <t xml:space="preserve">Extension {humanname-assembly-order|5.2.0}
 </t>
   </si>
   <si>
@@ -1115,7 +1115,7 @@
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use</t>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
   </si>
   <si>
     <t>HumanName.use</t>
@@ -1225,7 +1225,7 @@
     <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J245-Civilite-CISIS/FHIR/JDV-J245-Civilite-CISIS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J245-Civilite-CISIS/FHIR/JDV-J245-Civilite-CISIS|20230331120000</t>
   </si>
   <si>
     <t>HumanName.prefix</t>
@@ -1255,7 +1255,7 @@
     <t>Civilités d'exercice d'un professionnel du RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J79-CiviliteExercice-RASS/FHIR/JDV-J79-CiviliteExercice-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J79-CiviliteExercice-RASS/FHIR/JDV-J79-CiviliteExercice-RASS|20200424120000</t>
   </si>
   <si>
     <t>HumanName.suffix</t>
@@ -1291,7 +1291,7 @@
     <t>Practitioner.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
 </t>
   </si>
   <si>
@@ -1323,7 +1323,7 @@
     <t>Practitioner.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
 </t>
   </si>
   <si>
@@ -1498,7 +1498,7 @@
     <t>Specific qualification the practitioner has to provide a service.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360|0360</t>
   </si>
   <si>
     <t>./Qualifications.Value</t>
@@ -1606,13 +1606,13 @@
     <t>degreeType</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J81-TypeDiplome-RASS/FHIR/JDV-J81-TypeDiplome-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J81-TypeDiplome-RASS/FHIR/JDV-J81-TypeDiplome-RASS|20230526120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:degree.code.coding:degree</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J105-EnsembleDiplome-RASS/FHIR/JDV-J105-EnsembleDiplome-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J105-EnsembleDiplome-RASS/FHIR/JDV-J105-EnsembleDiplome-RASS|20250828120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:degree.code.text</t>
@@ -1690,7 +1690,7 @@
     <t>Catégorie professionnelle indiquant si le professionnel exerce sa profession en tant que Militaire, Civil, Fonctionnaire ou Etudiant (categorieProfessionnelle).</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J89-CategorieProfessionnelle-RASS/FHIR/JDV-J89-CategorieProfessionnelle-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J89-CategorieProfessionnelle-RASS/FHIR/JDV-J89-CategorieProfessionnelle-RASS|20240329120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:exercicePro.code.coding:profession</t>
@@ -1702,7 +1702,7 @@
     <t>Profession exercée : de santé (professionSante) TRE G15, du social (professionSocial) TRE R94, à usage de titre professionnel (usagerTitre) TRE R95, ou autre profession (autreProfession) TRE R291</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J106-EnsembleProfession-RASS/FHIR/JDV-J106-EnsembleProfession-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J106-EnsembleProfession-RASS/FHIR/JDV-J106-EnsembleProfession-RASS|20250328120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:exercicePro.code.text</t>
@@ -1757,7 +1757,7 @@
 typeSavoirFaire</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J91-TypeSavoirFaire-RASS/FHIR/JDV-J91-TypeSavoirFaire-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J91-TypeSavoirFaire-RASS/FHIR/JDV-J91-TypeSavoirFaire-RASS|20251016120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:savoirFaire.code.coding:savoirFaire</t>
@@ -1766,7 +1766,7 @@
     <t>Compétence acquise par le professionnel (competence) R39 ou Compétence exclusive exercée par le professionnel à titre exclusif (competenceExclusive) R40 ou Diplôme d'études spécialisées complémentaires (DESC)DESCnonQualifian R42 ou Capacité (savoir-faire)de médecine (capaciteSavoirFaire) R43 ou Qualification de praticien adjoint contractuel (qualificationPAC) R44 ou Fonction qualifiée (Synonyme: fonctionQualifiee) R45 ou Droit d'exercice complémentaire (Synonyme: droitExerciceComplementaire) R97 ou Orientation particulière (Synonyme: orientationParticuliere) G13 ou Activité ponctuelle du professionnel de type expertise (attributionParticuliere) G13.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J107-EnsembleSavoirFaire-RASS/FHIR/JDV-J107-EnsembleSavoirFaire-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J107-EnsembleSavoirFaire-RASS/FHIR/JDV-J107-EnsembleSavoirFaire-RASS|20241025120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:savoirFaire.code.text</t>
@@ -2123,7 +2123,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.2109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2138,7 +2138,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.42578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="106.95703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:32:44+00:00</t>
+    <t>2025-12-19T08:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -442,7 +442,7 @@
     <t>Practitioner.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
+    <t xml:space="preserve">canonical(StructureDefinition)
 </t>
   </si>
   <si>
@@ -493,7 +493,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -517,7 +517,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -560,7 +560,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -636,7 +636,7 @@
     <t>specialty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-specialty|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-specialty}
 </t>
   </si>
   <si>
@@ -793,7 +793,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -903,7 +903,7 @@
     <t>Practitioner.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -1053,7 +1053,7 @@
     <t>Practitioner.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name|2.2.0-ballot}
+    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name}
 </t>
   </si>
   <si>
@@ -1090,7 +1090,7 @@
     <t>assemblyOrder</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {humanname-assembly-order|5.2.0}
+    <t xml:space="preserve">Extension {humanname-assembly-order}
 </t>
   </si>
   <si>
@@ -1115,7 +1115,7 @@
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/name-use</t>
   </si>
   <si>
     <t>HumanName.use</t>
@@ -1225,7 +1225,7 @@
     <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J245-Civilite-CISIS/FHIR/JDV-J245-Civilite-CISIS|20230331120000</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J245-Civilite-CISIS/FHIR/JDV-J245-Civilite-CISIS</t>
   </si>
   <si>
     <t>HumanName.prefix</t>
@@ -1255,7 +1255,7 @@
     <t>Civilités d'exercice d'un professionnel du RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J79-CiviliteExercice-RASS/FHIR/JDV-J79-CiviliteExercice-RASS|20200424120000</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J79-CiviliteExercice-RASS/FHIR/JDV-J79-CiviliteExercice-RASS</t>
   </si>
   <si>
     <t>HumanName.suffix</t>
@@ -1291,7 +1291,7 @@
     <t>Practitioner.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
 </t>
   </si>
   <si>
@@ -1323,7 +1323,7 @@
     <t>Practitioner.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
 </t>
   </si>
   <si>
@@ -1498,7 +1498,7 @@
     <t>Specific qualification the practitioner has to provide a service.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360|0360</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
   </si>
   <si>
     <t>./Qualifications.Value</t>
@@ -1606,13 +1606,13 @@
     <t>degreeType</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J81-TypeDiplome-RASS/FHIR/JDV-J81-TypeDiplome-RASS|20230526120000</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J81-TypeDiplome-RASS/FHIR/JDV-J81-TypeDiplome-RASS</t>
   </si>
   <si>
     <t>Practitioner.qualification:degree.code.coding:degree</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J105-EnsembleDiplome-RASS/FHIR/JDV-J105-EnsembleDiplome-RASS|20250828120000</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J105-EnsembleDiplome-RASS/FHIR/JDV-J105-EnsembleDiplome-RASS</t>
   </si>
   <si>
     <t>Practitioner.qualification:degree.code.text</t>
@@ -1690,7 +1690,7 @@
     <t>Catégorie professionnelle indiquant si le professionnel exerce sa profession en tant que Militaire, Civil, Fonctionnaire ou Etudiant (categorieProfessionnelle).</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J89-CategorieProfessionnelle-RASS/FHIR/JDV-J89-CategorieProfessionnelle-RASS|20240329120000</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J89-CategorieProfessionnelle-RASS/FHIR/JDV-J89-CategorieProfessionnelle-RASS</t>
   </si>
   <si>
     <t>Practitioner.qualification:exercicePro.code.coding:profession</t>
@@ -1702,7 +1702,7 @@
     <t>Profession exercée : de santé (professionSante) TRE G15, du social (professionSocial) TRE R94, à usage de titre professionnel (usagerTitre) TRE R95, ou autre profession (autreProfession) TRE R291</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J106-EnsembleProfession-RASS/FHIR/JDV-J106-EnsembleProfession-RASS|20250328120000</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J106-EnsembleProfession-RASS/FHIR/JDV-J106-EnsembleProfession-RASS</t>
   </si>
   <si>
     <t>Practitioner.qualification:exercicePro.code.text</t>
@@ -1757,7 +1757,7 @@
 typeSavoirFaire</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J91-TypeSavoirFaire-RASS/FHIR/JDV-J91-TypeSavoirFaire-RASS|20251016120000</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J91-TypeSavoirFaire-RASS/FHIR/JDV-J91-TypeSavoirFaire-RASS</t>
   </si>
   <si>
     <t>Practitioner.qualification:savoirFaire.code.coding:savoirFaire</t>
@@ -1766,7 +1766,7 @@
     <t>Compétence acquise par le professionnel (competence) R39 ou Compétence exclusive exercée par le professionnel à titre exclusif (competenceExclusive) R40 ou Diplôme d'études spécialisées complémentaires (DESC)DESCnonQualifian R42 ou Capacité (savoir-faire)de médecine (capaciteSavoirFaire) R43 ou Qualification de praticien adjoint contractuel (qualificationPAC) R44 ou Fonction qualifiée (Synonyme: fonctionQualifiee) R45 ou Droit d'exercice complémentaire (Synonyme: droitExerciceComplementaire) R97 ou Orientation particulière (Synonyme: orientationParticuliere) G13 ou Activité ponctuelle du professionnel de type expertise (attributionParticuliere) G13.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J107-EnsembleSavoirFaire-RASS/FHIR/JDV-J107-EnsembleSavoirFaire-RASS|20241025120000</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J107-EnsembleSavoirFaire-RASS/FHIR/JDV-J107-EnsembleSavoirFaire-RASS</t>
   </si>
   <si>
     <t>Practitioner.qualification:savoirFaire.code.text</t>
@@ -2123,7 +2123,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.2109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2138,7 +2138,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="106.95703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="92.42578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:44:55+00:00</t>
+    <t>2025-12-19T09:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -442,7 +442,7 @@
     <t>Practitioner.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -493,7 +493,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -517,7 +517,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -560,7 +560,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -636,7 +636,7 @@
     <t>specialty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-specialty}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-specialty|2.1.0}
 </t>
   </si>
   <si>
@@ -793,7 +793,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -903,7 +903,7 @@
     <t>Practitioner.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1053,7 +1053,7 @@
     <t>Practitioner.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name}
+    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1090,7 +1090,7 @@
     <t>assemblyOrder</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {humanname-assembly-order}
+    <t xml:space="preserve">Extension {humanname-assembly-order|5.2.0}
 </t>
   </si>
   <si>
@@ -1115,7 +1115,7 @@
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use</t>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
   </si>
   <si>
     <t>HumanName.use</t>
@@ -1225,7 +1225,7 @@
     <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J245-Civilite-CISIS/FHIR/JDV-J245-Civilite-CISIS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J245-Civilite-CISIS/FHIR/JDV-J245-Civilite-CISIS|20230331120000</t>
   </si>
   <si>
     <t>HumanName.prefix</t>
@@ -1255,7 +1255,7 @@
     <t>Civilités d'exercice d'un professionnel du RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J79-CiviliteExercice-RASS/FHIR/JDV-J79-CiviliteExercice-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J79-CiviliteExercice-RASS/FHIR/JDV-J79-CiviliteExercice-RASS|20200424120000</t>
   </si>
   <si>
     <t>HumanName.suffix</t>
@@ -1291,7 +1291,7 @@
     <t>Practitioner.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
 </t>
   </si>
   <si>
@@ -1323,7 +1323,7 @@
     <t>Practitioner.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
 </t>
   </si>
   <si>
@@ -1498,7 +1498,7 @@
     <t>Specific qualification the practitioner has to provide a service.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360|0360</t>
   </si>
   <si>
     <t>./Qualifications.Value</t>
@@ -1606,13 +1606,13 @@
     <t>degreeType</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J81-TypeDiplome-RASS/FHIR/JDV-J81-TypeDiplome-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J81-TypeDiplome-RASS/FHIR/JDV-J81-TypeDiplome-RASS|20230526120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:degree.code.coding:degree</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J105-EnsembleDiplome-RASS/FHIR/JDV-J105-EnsembleDiplome-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J105-EnsembleDiplome-RASS/FHIR/JDV-J105-EnsembleDiplome-RASS|20250828120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:degree.code.text</t>
@@ -1690,7 +1690,7 @@
     <t>Catégorie professionnelle indiquant si le professionnel exerce sa profession en tant que Militaire, Civil, Fonctionnaire ou Etudiant (categorieProfessionnelle).</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J89-CategorieProfessionnelle-RASS/FHIR/JDV-J89-CategorieProfessionnelle-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J89-CategorieProfessionnelle-RASS/FHIR/JDV-J89-CategorieProfessionnelle-RASS|20240329120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:exercicePro.code.coding:profession</t>
@@ -1702,7 +1702,7 @@
     <t>Profession exercée : de santé (professionSante) TRE G15, du social (professionSocial) TRE R94, à usage de titre professionnel (usagerTitre) TRE R95, ou autre profession (autreProfession) TRE R291</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J106-EnsembleProfession-RASS/FHIR/JDV-J106-EnsembleProfession-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J106-EnsembleProfession-RASS/FHIR/JDV-J106-EnsembleProfession-RASS|20250328120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:exercicePro.code.text</t>
@@ -1757,7 +1757,7 @@
 typeSavoirFaire</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J91-TypeSavoirFaire-RASS/FHIR/JDV-J91-TypeSavoirFaire-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J91-TypeSavoirFaire-RASS/FHIR/JDV-J91-TypeSavoirFaire-RASS|20251016120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:savoirFaire.code.coding:savoirFaire</t>
@@ -1766,7 +1766,7 @@
     <t>Compétence acquise par le professionnel (competence) R39 ou Compétence exclusive exercée par le professionnel à titre exclusif (competenceExclusive) R40 ou Diplôme d'études spécialisées complémentaires (DESC)DESCnonQualifian R42 ou Capacité (savoir-faire)de médecine (capaciteSavoirFaire) R43 ou Qualification de praticien adjoint contractuel (qualificationPAC) R44 ou Fonction qualifiée (Synonyme: fonctionQualifiee) R45 ou Droit d'exercice complémentaire (Synonyme: droitExerciceComplementaire) R97 ou Orientation particulière (Synonyme: orientationParticuliere) G13 ou Activité ponctuelle du professionnel de type expertise (attributionParticuliere) G13.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J107-EnsembleSavoirFaire-RASS/FHIR/JDV-J107-EnsembleSavoirFaire-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J107-EnsembleSavoirFaire-RASS/FHIR/JDV-J107-EnsembleSavoirFaire-RASS|20241025120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:savoirFaire.code.text</t>
@@ -2123,7 +2123,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.2109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2138,7 +2138,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.42578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="106.95703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:03:44+00:00</t>
+    <t>2025-12-19T09:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:25:15+00:00</t>
+    <t>2025-12-19T09:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
